--- a/icmecat/HELCATS_ICMECAT_v20_master.xlsx
+++ b/icmecat/HELCATS_ICMECAT_v20_master.xlsx
@@ -185,7 +185,7 @@
     <t>2019-07-31T16:02Z</t>
   </si>
   <si>
-    <t>2019-07-31T09:37Z</t>
+    <t>2019-07-31T21:27Z</t>
   </si>
   <si>
     <t>ICME_PSP_MOESTL_20190910_01</t>

--- a/icmecat/HELCATS_ICMECAT_v20_master.xlsx
+++ b/icmecat/HELCATS_ICMECAT_v20_master.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Blatt2" sheetId="1" r:id="rId4"/>
-    <sheet name="Blatt1" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2715">
   <si>
     <t>icmecat_id</t>
   </si>
@@ -8058,412 +8057,106 @@
     <t>2007-09-08T11:00Z</t>
   </si>
   <si>
-    <t>ICME_MAVEN_MOESTL_20141217_01</t>
+    <t>ICME_MAVEN_MOESTL_20150118_01</t>
   </si>
   <si>
     <t>MAVEN</t>
   </si>
   <si>
-    <t>2014-12-17T22:10Z</t>
-  </si>
-  <si>
-    <t>2014-12-19T10:50Z</t>
-  </si>
-  <si>
-    <t>2014-12-23T20:10Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20150118_01</t>
-  </si>
-  <si>
-    <t>2015-01-18T05:00Z</t>
-  </si>
-  <si>
-    <t>2015-01-18T23:20Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20150207_01</t>
-  </si>
-  <si>
-    <t>2015-02-07T10:30Z</t>
-  </si>
-  <si>
-    <t>2015-02-08T04:50Z</t>
-  </si>
-  <si>
-    <t>2015-02-09T12:50Z</t>
+    <t>2015-01-18T05:05Z</t>
+  </si>
+  <si>
+    <t>2015-01-18T23:24Z</t>
   </si>
   <si>
     <t>ICME_MAVEN_MOESTL_20150213_01</t>
   </si>
   <si>
-    <t>2015-02-13T03:40Z</t>
-  </si>
-  <si>
-    <t>2015-02-13T17:20Z</t>
+    <t>2015-02-13T03:43Z</t>
+  </si>
+  <si>
+    <t>2015-02-13T17:22Z</t>
   </si>
   <si>
     <t>2015-02-15T05:40Z</t>
   </si>
   <si>
-    <t>ICME_MAVEN_MOESTL_20150827_01</t>
-  </si>
-  <si>
-    <t>2015-08-27T07:00Z</t>
-  </si>
-  <si>
-    <t>2015-08-28T06:10Z</t>
-  </si>
-  <si>
-    <t>2015-08-28T20:00Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20150922_01</t>
-  </si>
-  <si>
-    <t>2015-09-22T05:50Z</t>
-  </si>
-  <si>
-    <t>2015-09-22T10:30Z</t>
-  </si>
-  <si>
-    <t>2015-09-23T04:40Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20150930_01</t>
-  </si>
-  <si>
-    <t>2015-09-30T05:10Z</t>
-  </si>
-  <si>
-    <t>2015-09-30T23:20Z</t>
+    <t>ICME_MAVEN_MOESTL_20150308_01</t>
+  </si>
+  <si>
+    <t>2015-03-08T15:36Z</t>
+  </si>
+  <si>
+    <t>2015-03-09T00:40Z</t>
+  </si>
+  <si>
+    <t>2015-03-10T17:14Z</t>
   </si>
   <si>
     <t>ICME_MAVEN_MOESTL_20160105_01</t>
   </si>
   <si>
-    <t>2016-01-05T17:20Z</t>
-  </si>
-  <si>
-    <t>2016-01-06T20:30Z</t>
+    <t>2016-01-05T17:24Z</t>
+  </si>
+  <si>
+    <t>2016-01-06T20:28Z</t>
   </si>
   <si>
     <t>ICME_MAVEN_MOESTL_20160119_01</t>
   </si>
   <si>
-    <t>2016-01-19T01:50Z</t>
-  </si>
-  <si>
-    <t>2016-01-21T17:00Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20160214_01</t>
-  </si>
-  <si>
-    <t>2016-02-14T04:10Z</t>
-  </si>
-  <si>
-    <t>2016-02-14T13:10Z</t>
-  </si>
-  <si>
-    <t>2016-02-15T20:40Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20160726_01</t>
-  </si>
-  <si>
-    <t>2016-07-26T19:30Z</t>
-  </si>
-  <si>
-    <t>2016-07-28T02:10Z</t>
+    <t>2016-01-19T01:47Z</t>
+  </si>
+  <si>
+    <t>2016-01-22T01:58Z</t>
+  </si>
+  <si>
+    <t>ICME_MAVEN_MOESTL_20160721_01</t>
+  </si>
+  <si>
+    <t>2016-07-21T15:48Z</t>
+  </si>
+  <si>
+    <t>2016-07-23T07:34Z</t>
   </si>
   <si>
     <t>ICME_MAVEN_MOESTL_20160907_01</t>
   </si>
   <si>
-    <t>2016-09-07T18:00Z</t>
-  </si>
-  <si>
-    <t>2016-09-08T12:30Z</t>
-  </si>
-  <si>
-    <t>2016-09-09T11:40Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20160910_01</t>
-  </si>
-  <si>
-    <t>2016-09-10T15:30Z</t>
-  </si>
-  <si>
-    <t>2016-09-11T14:30Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20170112_01</t>
-  </si>
-  <si>
-    <t>2017-01-12T08:40Z</t>
-  </si>
-  <si>
-    <t>2017-01-13T03:00Z</t>
-  </si>
-  <si>
-    <t>2017-01-13T16:50Z</t>
+    <t>2016-09-07T18:01Z</t>
+  </si>
+  <si>
+    <t>2016-09-08T12:31Z</t>
+  </si>
+  <si>
+    <t>2016-09-09T11:41Z</t>
   </si>
   <si>
     <t>ICME_MAVEN_MOESTL_20170119_01</t>
   </si>
   <si>
-    <t>2017-01-19T05:50Z</t>
-  </si>
-  <si>
-    <t>2017-01-19T15:00Z</t>
-  </si>
-  <si>
-    <t>2017-01-20T18:30Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20170703_01</t>
-  </si>
-  <si>
-    <t>2017-07-03T22:20Z</t>
-  </si>
-  <si>
-    <t>2017-07-04T21:00Z</t>
-  </si>
-  <si>
-    <t>2017-07-06T04:40Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20170722_01</t>
-  </si>
-  <si>
-    <t>2017-07-22T14:30Z</t>
-  </si>
-  <si>
-    <t>2017-07-24T11:50Z</t>
-  </si>
-  <si>
-    <t>ICME_MAVEN_MOESTL_20170726_01</t>
-  </si>
-  <si>
-    <t>2017-07-26T04:30Z</t>
-  </si>
-  <si>
-    <t>2017-07-26T09:00Z</t>
-  </si>
-  <si>
-    <t>2017-07-27T12:10Z</t>
-  </si>
-  <si>
-    <t>HEADER FILE FOR HELCATS_ICMECAT_v20_SCEQ.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTHORS: </t>
-  </si>
-  <si>
-    <t>Christian Moestl, Peter Boakes, University of Graz, Austria and SRI, Austrian Academy of Sciences, Graz, Austria.</t>
-  </si>
-  <si>
-    <t>Alexey Isavnin, Emilia Kilpua, University of Helsinki, Finland.</t>
-  </si>
-  <si>
-    <t>Benoit Lavraud, IRAP, Toulouse, France.</t>
-  </si>
-  <si>
-    <t>We sincerely thank the providers of individual ICME lists: Simon Good, Reka Winslow, Lan Jian and Teresa Nieves-Chinchilla.</t>
-  </si>
-  <si>
-    <t>FILE CREATION DATE: Mon May 28 12:09:36 2018</t>
-  </si>
-  <si>
-    <t>INPUT FILE:/home/cmoestl/helcats/products/ICMECAT/HELCATS_ICMECAT_v20_master.txt</t>
-  </si>
-  <si>
-    <t>Number of events in ICMECAT: 704</t>
-  </si>
-  <si>
-    <t>ICME observatories: Wind STEREO-A STEREO-B VEX MESSENGER ULYSSES MAVEN</t>
-  </si>
-  <si>
-    <t>Time range: January 2007 - December 2017.</t>
-  </si>
-  <si>
-    <t>Coordinate system for all spacecraft except Ulysses (RTN) and MAVEN (MSO):  SCEQ</t>
-  </si>
-  <si>
-    <t>SpaceCraft Equatorial Coordinates (SCEQ):</t>
-  </si>
-  <si>
-    <t>Z is the solar rotation axis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X points from the Sun to the spacecraft, projected in the solar equatorial plane. </t>
-  </si>
-  <si>
-    <t>Y completes the right handed triad and points to solar west.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This system is thus centered on the respective in situ spacecraft. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The solar equatorial plane as the reference plane is similar for all spacecraft.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: </t>
-  </si>
-  <si>
-    <t>(1) For all spacecraft: If there is no sheath region, so the ICME starts immediately with a magnetic obstacle, the ICME_START_TIME is similar to MO_START_TIME.</t>
-  </si>
-  <si>
-    <t>(2) For all spacecraft the times that are given are: the ICME_START_TIME (defined by shock or elevated magnetic field start), the MO_START_TIME,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    and the MO_END_TIME (MO for magnetic obstacle, defined by elevated field and smooth magnetic field rotations, but also includes (few) complex ejecta).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Only for Wind the ICME_END_TIME is given extra, which contains interval of disturbed solar wind by the ICME until the values return to slow solar wind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) MESSENGER: For ICME events catalogued by Winslow et al. the end time of the ICME is used for MO_END_TIME (not ICME_END_TIME). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Caution: after 2011 March 18 when MESSENGER is in orbit around Mercury the times are sometimes not exact because </t>
-  </si>
-  <si>
-    <t>(4) MESSENGER and VEX: For events cataloged by Simon Good ICME_START_TIME has been added by V. Krupar (Imperial College) and C. Moestl (Graz).</t>
-  </si>
-  <si>
-    <t>(5) For the calculation of the parameters at MESSENGER during the orbit around Mercury, all data points inside the bowshock of Mercury have been removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (according to a list thankfully provided to us by by R. Winslow, UNH, B. Anderson, APL, Lydia Philpott, UBC).</t>
-  </si>
-  <si>
-    <t>(6) For MVA to be applied to the MO interval, up to 25% of the MO data points may be NaN. Otherwise MVA results are set to NaN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    This is relevant to MESSENGER in orbit around Mercury and VEX at Venus, where the ICME observation in the solar wind sometimes contains too few data points.</t>
-  </si>
-  <si>
-    <t>(7) Calculation of the MO parameters at VEX is done with an approximate removal of the induced magnetosphere, with a modified equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    according to the one in the discussion of Zhang et al. 2008 (doi: 10.1016/j.pss.2007.09.012), with a constant of 3.5 instead of 2.14/2.364,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    in order to account for a larger bowshock distance during solar maximum than studied in this paper. </t>
-  </si>
-  <si>
-    <t>(8) Similarly, for MAVEN data, all data inside the bow shock were removed with the model from Edberg et al. 2008 (JGR), including one standard deviation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    For the remaining data the median for each orbit is taken as 1 data point. 4.5 hour time resolution.</t>
-  </si>
-  <si>
-    <t>updates in this version 20 compared to version 10: added MAVEN events, extended the Wind catalog to end of 2017 and added dynamic pressure parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIABLES: </t>
-  </si>
-  <si>
-    <t>1: ICMECAT_ID: The unique identifier for the observed ICME. unit: string.</t>
-  </si>
-  <si>
-    <t>2: SC_INSITU: The name of the in situ observatory. unit: string.</t>
-  </si>
-  <si>
-    <t>3: ICME_START_TIME: The shock arrival or density enhancement time, can be similar to MO_START_TIME. unit: UTC.</t>
-  </si>
-  <si>
-    <t>4: MO_START_TIME: The start time of the magnetic obstacle (MO), including flux ropes, flux-rope-like, and ejecta signatures. unit: UTC.</t>
-  </si>
-  <si>
-    <t>5: MO_END_TIME: The end time of the magnetic obstacle. unit: UTC.</t>
-  </si>
-  <si>
-    <t>6: ICME_END_TIME: The end time of the ICME, can be similar to MO_END_TIME. unit: UTC.</t>
-  </si>
-  <si>
-    <t>7: MO_BMAX: The maximum total magnetic field in the magnetic obstacle. unit: nT.</t>
-  </si>
-  <si>
-    <t>8: MO_BMEAN: The mean total magnetic field of the magnetic obstacle. unit: nT.</t>
-  </si>
-  <si>
-    <t>9: MO_BSTD: The standard deviation of the total magnetic field of the magnetic obstacle. unit: nT.</t>
-  </si>
-  <si>
-    <t>10: MO_BZMEAN: The mean magnetic field Bz component in the magnetic obstacle. unit: nT.</t>
-  </si>
-  <si>
-    <t>11: MO_BZMIN: The minimum magnetic field Bz component of the magnetic obstacle. unit: nT.</t>
-  </si>
-  <si>
-    <t>12: MO_DURATION: Duration of interval between MO_START_TIME and MO_END_TIME. unit: hours.</t>
-  </si>
-  <si>
-    <t>13: SC_HELIODISTANCE: Average heliocentric distance of the spacecraft during the MO. unit: AU.</t>
-  </si>
-  <si>
-    <t>14: SC_LONG_HEEQ: Average heliospheric longitude of the spacecraft during the MO, range [-180,180]. unit: degree (HEEQ).</t>
-  </si>
-  <si>
-    <t>15: SC_LAT_HEEQ: Average heliospheric latitude of the spacecraft during the MO, range [-90,90]. unit: degree (HEEQ).</t>
-  </si>
-  <si>
-    <t>16: MO_MVA_AXIS_LONG: Longitude of axis from minimum variance analysis with magnetic field unit vectors (MVA): X=0 deg, Y=90 deg, range [0,360]. unit: degree (SCEQ).</t>
-  </si>
-  <si>
-    <t>17: MO_MVA_AXIS_LAT: Latitude of axis from MVA, +Z=-90 deg, -Z=-90, range [-90,90]. unit: degree (SCEQ).</t>
-  </si>
-  <si>
-    <t>18: MO_MVA_RATIO: Eigenvalue 2 over 3 ratio as indicator of reliability of MVA, must be &gt; 2, otherwise NaN. unit: number.</t>
-  </si>
-  <si>
-    <t>19: SHEATH_SPEED: For STEREO-A/B, Wind, MAVEN: average proton speed from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: km/s.</t>
-  </si>
-  <si>
-    <t>20: SHEATH_SPEED_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of proton speed from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: km/s.</t>
-  </si>
-  <si>
-    <t>21: MO_SPEED: For STEREO-A/B, Wind, MAVEN: average proton speed from MO_START_TIME to MO_END_TIME. unit: km/s.</t>
-  </si>
-  <si>
-    <t>22: MO_SPEED_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of proton speed from MO_START_TIME to MO_END_TIME. unit: km/s.</t>
-  </si>
-  <si>
-    <t>23: SHEATH_DENSITY: For STEREO-A/B, Wind, MAVEN: average proton density from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: ccm^-3.</t>
-  </si>
-  <si>
-    <t>24: SHEATH_DENSITY_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of proton density from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: cm^-3.</t>
-  </si>
-  <si>
-    <t>25: MO_DENSITY: For STEREO-A/B, Wind, MAVEN: average proton density from MO_START_TIME to MO_END_TIME. unit: cm^-3.</t>
-  </si>
-  <si>
-    <t>26: MO_DENSITY_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of proton density from MO_START_TIME to MO_END_TIME. unit: cm^-3.</t>
-  </si>
-  <si>
-    <t>27: SHEATH_TEMPERATURE: For STEREO-A/B, Wind, MAVEN:average proton temperature from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: K.</t>
-  </si>
-  <si>
-    <t>28: SHEATH_TEMPERATURE_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of proton temperature from ICME_START_TIME to MO_START_TIME, NaN if these times are similar. unit: K.</t>
-  </si>
-  <si>
-    <t>29: MO_TEMPERATURE: For STEREO-A/B, Wind, MAVEN: average proton temperature from MO_START_TIME to MO_END_TIME. unit: K.</t>
-  </si>
-  <si>
-    <t>30: SHEATH_PDYN_MEAN: For STEREO-A/B, Wind, MAVEN: mean of dynamic pressure assuming only protons contribute, from ICME_START_TIME to MO_START_TIME. unit: nPa.</t>
-  </si>
-  <si>
-    <t>31: SHEATH_PDYN_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of dynamic pressure assuming only protons contribute, from ICME_START_TIME to MO_START_TIME. unit: nPa.</t>
-  </si>
-  <si>
-    <t>32: MO_PDYN_MEAN: For STEREO-A/B, Wind, MAVEN: mean of dynamic pressure assuming only protons contribute, from MO_START_TIME to MO_END_TIME. unit: nPa.</t>
-  </si>
-  <si>
-    <t>33: MO_PDYN_STD: For STEREO-A/B, Wind, MAVEN: standard deviation of dynamic pressure assuming only protons contribute, from MO_START_TIME to MO_END_TIME. unit: nPa.</t>
+    <t>2017-01-19T05:53Z</t>
+  </si>
+  <si>
+    <t>2017-01-20T23:08Z</t>
+  </si>
+  <si>
+    <t>ICME_MAVEN_MOESTL_20170303_01</t>
+  </si>
+  <si>
+    <t>2017-03-03T17:46Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-05T10:57Z </t>
+  </si>
+  <si>
+    <t>ICME_MAVEN_MOESTL_20170704_01</t>
+  </si>
+  <si>
+    <t>2017-07-04T02:53Z</t>
+  </si>
+  <si>
+    <t>2017-07-06T09:14Z</t>
   </si>
 </sst>
 </file>
@@ -8538,7 +8231,7 @@
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
@@ -8559,9 +8252,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9673,7 +9363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ775"/>
+  <dimension ref="A1:AQ786"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -49726,10 +49416,10 @@
         <v>2683</v>
       </c>
       <c r="D727" t="s" s="2">
+        <v>2683</v>
+      </c>
+      <c r="E727" t="s" s="2">
         <v>2684</v>
-      </c>
-      <c r="E727" t="s" s="2">
-        <v>2685</v>
       </c>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
@@ -49772,13 +49462,13 @@
     </row>
     <row r="728" ht="23" customHeight="1">
       <c r="A728" t="s" s="2">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C728" t="s" s="2">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D728" t="s" s="2">
         <v>2687</v>
@@ -49891,10 +49581,10 @@
         <v>2694</v>
       </c>
       <c r="D730" t="s" s="2">
+        <v>2694</v>
+      </c>
+      <c r="E730" t="s" s="2">
         <v>2695</v>
-      </c>
-      <c r="E730" t="s" s="2">
-        <v>2696</v>
       </c>
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
@@ -49937,19 +49627,19 @@
     </row>
     <row r="731" ht="23" customHeight="1">
       <c r="A731" t="s" s="2">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C731" t="s" s="2">
+        <v>2697</v>
+      </c>
+      <c r="D731" t="s" s="2">
+        <v>2697</v>
+      </c>
+      <c r="E731" t="s" s="2">
         <v>2698</v>
-      </c>
-      <c r="D731" t="s" s="2">
-        <v>2699</v>
-      </c>
-      <c r="E731" t="s" s="2">
-        <v>2700</v>
       </c>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
@@ -49992,19 +49682,19 @@
     </row>
     <row r="732" ht="23" customHeight="1">
       <c r="A732" t="s" s="2">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C732" t="s" s="2">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="D732" t="s" s="2">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="E732" t="s" s="2">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
@@ -50047,19 +49737,19 @@
     </row>
     <row r="733" ht="23" customHeight="1">
       <c r="A733" t="s" s="2">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C733" t="s" s="2">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="D733" t="s" s="2">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="E733" t="s" s="2">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
@@ -50102,19 +49792,19 @@
     </row>
     <row r="734" ht="23" customHeight="1">
       <c r="A734" t="s" s="2">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C734" t="s" s="2">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="D734" t="s" s="2">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="E734" t="s" s="2">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
@@ -50157,19 +49847,19 @@
     </row>
     <row r="735" ht="23" customHeight="1">
       <c r="A735" t="s" s="2">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C735" t="s" s="2">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="D735" t="s" s="2">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="E735" t="s" s="2">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
@@ -50212,19 +49902,19 @@
     </row>
     <row r="736" ht="23" customHeight="1">
       <c r="A736" t="s" s="2">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>2682</v>
       </c>
       <c r="C736" t="s" s="2">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D736" t="s" s="2">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="E736" t="s" s="2">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
@@ -50266,21 +49956,11 @@
       <c r="AQ736" s="3"/>
     </row>
     <row r="737" ht="23" customHeight="1">
-      <c r="A737" t="s" s="2">
-        <v>2718</v>
-      </c>
-      <c r="B737" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C737" t="s" s="2">
-        <v>2719</v>
-      </c>
-      <c r="D737" t="s" s="2">
-        <v>2719</v>
-      </c>
-      <c r="E737" t="s" s="2">
-        <v>2720</v>
-      </c>
+      <c r="A737" s="2"/>
+      <c r="B737" s="2"/>
+      <c r="C737" s="2"/>
+      <c r="D737" s="2"/>
+      <c r="E737" s="2"/>
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
@@ -50321,21 +50001,11 @@
       <c r="AQ737" s="3"/>
     </row>
     <row r="738" ht="23" customHeight="1">
-      <c r="A738" t="s" s="2">
-        <v>2721</v>
-      </c>
-      <c r="B738" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C738" t="s" s="2">
-        <v>2722</v>
-      </c>
-      <c r="D738" t="s" s="2">
-        <v>2723</v>
-      </c>
-      <c r="E738" t="s" s="2">
-        <v>2724</v>
-      </c>
+      <c r="A738" s="2"/>
+      <c r="B738" s="2"/>
+      <c r="C738" s="2"/>
+      <c r="D738" s="2"/>
+      <c r="E738" s="2"/>
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
@@ -50376,21 +50046,11 @@
       <c r="AQ738" s="3"/>
     </row>
     <row r="739" ht="23" customHeight="1">
-      <c r="A739" t="s" s="2">
-        <v>2725</v>
-      </c>
-      <c r="B739" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C739" t="s" s="2">
-        <v>2726</v>
-      </c>
-      <c r="D739" t="s" s="2">
-        <v>2726</v>
-      </c>
-      <c r="E739" t="s" s="2">
-        <v>2727</v>
-      </c>
+      <c r="A739" s="2"/>
+      <c r="B739" s="2"/>
+      <c r="C739" s="2"/>
+      <c r="D739" s="2"/>
+      <c r="E739" s="2"/>
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
@@ -50431,21 +50091,11 @@
       <c r="AQ739" s="3"/>
     </row>
     <row r="740" ht="23" customHeight="1">
-      <c r="A740" t="s" s="2">
-        <v>2728</v>
-      </c>
-      <c r="B740" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C740" t="s" s="2">
-        <v>2729</v>
-      </c>
-      <c r="D740" t="s" s="2">
-        <v>2730</v>
-      </c>
-      <c r="E740" t="s" s="2">
-        <v>2731</v>
-      </c>
+      <c r="A740" s="2"/>
+      <c r="B740" s="2"/>
+      <c r="C740" s="2"/>
+      <c r="D740" s="2"/>
+      <c r="E740" s="2"/>
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
@@ -50486,21 +50136,11 @@
       <c r="AQ740" s="3"/>
     </row>
     <row r="741" ht="23" customHeight="1">
-      <c r="A741" t="s" s="2">
-        <v>2732</v>
-      </c>
-      <c r="B741" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C741" t="s" s="2">
-        <v>2733</v>
-      </c>
-      <c r="D741" t="s" s="2">
-        <v>2734</v>
-      </c>
-      <c r="E741" t="s" s="2">
-        <v>2735</v>
-      </c>
+      <c r="A741" s="2"/>
+      <c r="B741" s="2"/>
+      <c r="C741" s="2"/>
+      <c r="D741" s="2"/>
+      <c r="E741" s="2"/>
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
@@ -50541,21 +50181,11 @@
       <c r="AQ741" s="3"/>
     </row>
     <row r="742" ht="23" customHeight="1">
-      <c r="A742" t="s" s="2">
-        <v>2736</v>
-      </c>
-      <c r="B742" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C742" t="s" s="2">
-        <v>2737</v>
-      </c>
-      <c r="D742" t="s" s="2">
-        <v>2738</v>
-      </c>
-      <c r="E742" t="s" s="2">
-        <v>2739</v>
-      </c>
+      <c r="A742" s="2"/>
+      <c r="B742" s="2"/>
+      <c r="C742" s="2"/>
+      <c r="D742" s="2"/>
+      <c r="E742" s="2"/>
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
@@ -50596,21 +50226,11 @@
       <c r="AQ742" s="3"/>
     </row>
     <row r="743" ht="23" customHeight="1">
-      <c r="A743" t="s" s="2">
-        <v>2740</v>
-      </c>
-      <c r="B743" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C743" t="s" s="2">
-        <v>2741</v>
-      </c>
-      <c r="D743" t="s" s="2">
-        <v>2741</v>
-      </c>
-      <c r="E743" t="s" s="2">
-        <v>2742</v>
-      </c>
+      <c r="A743" s="2"/>
+      <c r="B743" s="2"/>
+      <c r="C743" s="2"/>
+      <c r="D743" s="2"/>
+      <c r="E743" s="2"/>
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
@@ -50651,21 +50271,11 @@
       <c r="AQ743" s="3"/>
     </row>
     <row r="744" ht="23" customHeight="1">
-      <c r="A744" t="s" s="2">
-        <v>2743</v>
-      </c>
-      <c r="B744" t="s" s="2">
-        <v>2682</v>
-      </c>
-      <c r="C744" t="s" s="2">
-        <v>2744</v>
-      </c>
-      <c r="D744" t="s" s="2">
-        <v>2745</v>
-      </c>
-      <c r="E744" t="s" s="2">
-        <v>2746</v>
-      </c>
+      <c r="A744" s="2"/>
+      <c r="B744" s="2"/>
+      <c r="C744" s="2"/>
+      <c r="D744" s="2"/>
+      <c r="E744" s="2"/>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
@@ -50705,7 +50315,7 @@
       <c r="AP744" s="3"/>
       <c r="AQ744" s="3"/>
     </row>
-    <row r="745" ht="25" customHeight="1">
+    <row r="745" ht="23" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -50750,12 +50360,12 @@
       <c r="AP745" s="3"/>
       <c r="AQ745" s="3"/>
     </row>
-    <row r="746" ht="25" customHeight="1">
-      <c r="A746" s="3"/>
-      <c r="B746" s="3"/>
-      <c r="C746" s="3"/>
-      <c r="D746" s="3"/>
-      <c r="E746" s="3"/>
+    <row r="746" ht="23" customHeight="1">
+      <c r="A746" s="2"/>
+      <c r="B746" s="2"/>
+      <c r="C746" s="2"/>
+      <c r="D746" s="2"/>
+      <c r="E746" s="2"/>
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
@@ -50795,12 +50405,12 @@
       <c r="AP746" s="3"/>
       <c r="AQ746" s="3"/>
     </row>
-    <row r="747" ht="25" customHeight="1">
-      <c r="A747" s="3"/>
-      <c r="B747" s="3"/>
-      <c r="C747" s="3"/>
-      <c r="D747" s="3"/>
-      <c r="E747" s="3"/>
+    <row r="747" ht="23" customHeight="1">
+      <c r="A747" s="2"/>
+      <c r="B747" s="2"/>
+      <c r="C747" s="2"/>
+      <c r="D747" s="2"/>
+      <c r="E747" s="2"/>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
@@ -50840,12 +50450,12 @@
       <c r="AP747" s="3"/>
       <c r="AQ747" s="3"/>
     </row>
-    <row r="748" ht="25" customHeight="1">
-      <c r="A748" s="3"/>
-      <c r="B748" s="3"/>
-      <c r="C748" s="3"/>
-      <c r="D748" s="3"/>
-      <c r="E748" s="3"/>
+    <row r="748" ht="23" customHeight="1">
+      <c r="A748" s="2"/>
+      <c r="B748" s="2"/>
+      <c r="C748" s="2"/>
+      <c r="D748" s="2"/>
+      <c r="E748" s="2"/>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
@@ -50885,12 +50495,12 @@
       <c r="AP748" s="3"/>
       <c r="AQ748" s="3"/>
     </row>
-    <row r="749" ht="25" customHeight="1">
-      <c r="A749" s="3"/>
-      <c r="B749" s="3"/>
-      <c r="C749" s="3"/>
-      <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
+    <row r="749" ht="23" customHeight="1">
+      <c r="A749" s="2"/>
+      <c r="B749" s="2"/>
+      <c r="C749" s="2"/>
+      <c r="D749" s="2"/>
+      <c r="E749" s="2"/>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
@@ -50930,12 +50540,12 @@
       <c r="AP749" s="3"/>
       <c r="AQ749" s="3"/>
     </row>
-    <row r="750" ht="25" customHeight="1">
-      <c r="A750" s="3"/>
-      <c r="B750" s="3"/>
-      <c r="C750" s="3"/>
-      <c r="D750" s="3"/>
-      <c r="E750" s="3"/>
+    <row r="750" ht="23" customHeight="1">
+      <c r="A750" s="2"/>
+      <c r="B750" s="2"/>
+      <c r="C750" s="2"/>
+      <c r="D750" s="2"/>
+      <c r="E750" s="2"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
@@ -50975,12 +50585,12 @@
       <c r="AP750" s="3"/>
       <c r="AQ750" s="3"/>
     </row>
-    <row r="751" ht="25" customHeight="1">
-      <c r="A751" s="3"/>
-      <c r="B751" s="3"/>
-      <c r="C751" s="3"/>
-      <c r="D751" s="3"/>
-      <c r="E751" s="3"/>
+    <row r="751" ht="23" customHeight="1">
+      <c r="A751" s="2"/>
+      <c r="B751" s="2"/>
+      <c r="C751" s="2"/>
+      <c r="D751" s="2"/>
+      <c r="E751" s="2"/>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
@@ -51020,12 +50630,12 @@
       <c r="AP751" s="3"/>
       <c r="AQ751" s="3"/>
     </row>
-    <row r="752" ht="25" customHeight="1">
-      <c r="A752" s="3"/>
-      <c r="B752" s="3"/>
-      <c r="C752" s="3"/>
-      <c r="D752" s="3"/>
-      <c r="E752" s="3"/>
+    <row r="752" ht="23" customHeight="1">
+      <c r="A752" s="2"/>
+      <c r="B752" s="2"/>
+      <c r="C752" s="2"/>
+      <c r="D752" s="2"/>
+      <c r="E752" s="2"/>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
@@ -51065,12 +50675,12 @@
       <c r="AP752" s="3"/>
       <c r="AQ752" s="3"/>
     </row>
-    <row r="753" ht="25" customHeight="1">
-      <c r="A753" s="3"/>
-      <c r="B753" s="3"/>
-      <c r="C753" s="3"/>
-      <c r="D753" s="3"/>
-      <c r="E753" s="3"/>
+    <row r="753" ht="23" customHeight="1">
+      <c r="A753" s="2"/>
+      <c r="B753" s="2"/>
+      <c r="C753" s="2"/>
+      <c r="D753" s="2"/>
+      <c r="E753" s="2"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
@@ -51110,12 +50720,12 @@
       <c r="AP753" s="3"/>
       <c r="AQ753" s="3"/>
     </row>
-    <row r="754" ht="25" customHeight="1">
-      <c r="A754" s="3"/>
-      <c r="B754" s="3"/>
-      <c r="C754" s="3"/>
-      <c r="D754" s="3"/>
-      <c r="E754" s="3"/>
+    <row r="754" ht="23" customHeight="1">
+      <c r="A754" s="2"/>
+      <c r="B754" s="2"/>
+      <c r="C754" s="2"/>
+      <c r="D754" s="2"/>
+      <c r="E754" s="2"/>
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
@@ -51155,12 +50765,12 @@
       <c r="AP754" s="3"/>
       <c r="AQ754" s="3"/>
     </row>
-    <row r="755" ht="25" customHeight="1">
-      <c r="A755" s="3"/>
-      <c r="B755" s="3"/>
-      <c r="C755" s="3"/>
-      <c r="D755" s="3"/>
-      <c r="E755" s="3"/>
+    <row r="755" ht="23" customHeight="1">
+      <c r="A755" s="2"/>
+      <c r="B755" s="2"/>
+      <c r="C755" s="2"/>
+      <c r="D755" s="2"/>
+      <c r="E755" s="2"/>
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
@@ -51201,11 +50811,11 @@
       <c r="AQ755" s="3"/>
     </row>
     <row r="756" ht="25" customHeight="1">
-      <c r="A756" s="3"/>
-      <c r="B756" s="3"/>
-      <c r="C756" s="3"/>
-      <c r="D756" s="3"/>
-      <c r="E756" s="3"/>
+      <c r="A756" s="2"/>
+      <c r="B756" s="2"/>
+      <c r="C756" s="2"/>
+      <c r="D756" s="2"/>
+      <c r="E756" s="2"/>
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
@@ -52100,1678 +51710,500 @@
       <c r="AP775" s="3"/>
       <c r="AQ775" s="3"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P84"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.22222" defaultRowHeight="23.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="16" width="7.21875" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="7.21875" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>2747</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" ht="23" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" ht="23" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>2748</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" ht="23" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>2749</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" ht="23" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>2750</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" ht="23" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>2751</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" ht="23" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>2752</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" ht="23" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" ht="23" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>2753</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" ht="23" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" ht="23" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>2754</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" ht="23" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" ht="23" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>2755</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" ht="23" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" ht="23" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>2756</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" ht="23" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" ht="23" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>2757</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" ht="23" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" ht="23" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>2758</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" ht="23" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" ht="23" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>2759</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" ht="23" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s" s="2">
-        <v>2760</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" ht="23" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s" s="2">
-        <v>2761</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" ht="23" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s" s="2">
-        <v>2762</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" ht="23" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>2763</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" ht="23" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>2764</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" ht="23" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" ht="23" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>2765</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" ht="23" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>2766</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" ht="23" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>2767</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" ht="23" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>2768</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" ht="23" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>2769</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" ht="23" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>2770</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" ht="23" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>2771</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" ht="23" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>2772</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" ht="23" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>2773</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" ht="23" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>2774</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" ht="23" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>2775</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" ht="23" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>2776</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" ht="23" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>2777</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" ht="23" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>2778</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" ht="23" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>2779</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" ht="23" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>2780</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" ht="23" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>2781</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" ht="23" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" ht="23" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>2782</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" ht="23" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>2783</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" ht="23" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s" s="2">
-        <v>2784</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" ht="23" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s" s="2">
-        <v>2785</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" ht="23" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" t="s" s="2">
-        <v>2786</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" ht="23" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" t="s" s="2">
-        <v>2787</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" ht="23" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s" s="2">
-        <v>2788</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" ht="23" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" t="s" s="2">
-        <v>2789</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" ht="23" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s" s="2">
-        <v>2790</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" ht="23" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" t="s" s="2">
-        <v>2791</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" ht="23" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s" s="2">
-        <v>2792</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" ht="23" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s" s="2">
-        <v>2793</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" ht="23" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" t="s" s="2">
-        <v>2794</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" ht="23" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" t="s" s="2">
-        <v>2795</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" ht="23" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s" s="2">
-        <v>2796</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" ht="23" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" t="s" s="2">
-        <v>2797</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" ht="23" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s" s="2">
-        <v>2798</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" ht="23" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s" s="2">
-        <v>2799</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" ht="23" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" t="s" s="2">
-        <v>2800</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" ht="23" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" t="s" s="2">
-        <v>2801</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" ht="23" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s" s="2">
-        <v>2802</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" ht="23" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" t="s" s="2">
-        <v>2803</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" ht="23" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" t="s" s="2">
-        <v>2804</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" ht="23" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" t="s" s="2">
-        <v>2805</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" ht="23" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" t="s" s="2">
-        <v>2806</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" ht="23" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" t="s" s="2">
-        <v>2807</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" ht="23" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" t="s" s="2">
-        <v>2808</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" ht="23" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" t="s" s="2">
-        <v>2809</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" ht="23" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" t="s" s="2">
-        <v>2810</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" ht="23" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="B75" t="s" s="2">
-        <v>2811</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" ht="23" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" t="s" s="2">
-        <v>2812</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" ht="23" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" t="s" s="2">
-        <v>2813</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" ht="23" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" t="s" s="2">
-        <v>2814</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" ht="23" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" t="s" s="2">
-        <v>2815</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" ht="23" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" t="s" s="2">
-        <v>2816</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" ht="23" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" ht="23" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" ht="23" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" ht="23" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
+    <row r="776" ht="25" customHeight="1">
+      <c r="A776" s="3"/>
+      <c r="B776" s="3"/>
+      <c r="C776" s="3"/>
+      <c r="D776" s="3"/>
+      <c r="E776" s="3"/>
+      <c r="F776" s="3"/>
+      <c r="G776" s="3"/>
+      <c r="H776" s="3"/>
+      <c r="I776" s="3"/>
+      <c r="J776" s="3"/>
+      <c r="K776" s="3"/>
+      <c r="L776" s="3"/>
+      <c r="M776" s="3"/>
+      <c r="N776" s="3"/>
+      <c r="O776" s="3"/>
+      <c r="P776" s="3"/>
+      <c r="Q776" s="3"/>
+      <c r="R776" s="3"/>
+      <c r="S776" s="3"/>
+      <c r="T776" s="3"/>
+      <c r="U776" s="3"/>
+      <c r="V776" s="3"/>
+      <c r="W776" s="3"/>
+      <c r="X776" s="3"/>
+      <c r="Y776" s="3"/>
+      <c r="Z776" s="3"/>
+      <c r="AA776" s="3"/>
+      <c r="AB776" s="3"/>
+      <c r="AC776" s="3"/>
+      <c r="AD776" s="3"/>
+      <c r="AE776" s="3"/>
+      <c r="AF776" s="3"/>
+      <c r="AG776" s="3"/>
+      <c r="AH776" s="3"/>
+      <c r="AI776" s="3"/>
+      <c r="AJ776" s="3"/>
+      <c r="AK776" s="3"/>
+      <c r="AL776" s="3"/>
+      <c r="AM776" s="3"/>
+      <c r="AN776" s="3"/>
+      <c r="AO776" s="3"/>
+      <c r="AP776" s="3"/>
+      <c r="AQ776" s="3"/>
+    </row>
+    <row r="777" ht="25" customHeight="1">
+      <c r="A777" s="3"/>
+      <c r="B777" s="3"/>
+      <c r="C777" s="3"/>
+      <c r="D777" s="3"/>
+      <c r="E777" s="3"/>
+      <c r="F777" s="3"/>
+      <c r="G777" s="3"/>
+      <c r="H777" s="3"/>
+      <c r="I777" s="3"/>
+      <c r="J777" s="3"/>
+      <c r="K777" s="3"/>
+      <c r="L777" s="3"/>
+      <c r="M777" s="3"/>
+      <c r="N777" s="3"/>
+      <c r="O777" s="3"/>
+      <c r="P777" s="3"/>
+      <c r="Q777" s="3"/>
+      <c r="R777" s="3"/>
+      <c r="S777" s="3"/>
+      <c r="T777" s="3"/>
+      <c r="U777" s="3"/>
+      <c r="V777" s="3"/>
+      <c r="W777" s="3"/>
+      <c r="X777" s="3"/>
+      <c r="Y777" s="3"/>
+      <c r="Z777" s="3"/>
+      <c r="AA777" s="3"/>
+      <c r="AB777" s="3"/>
+      <c r="AC777" s="3"/>
+      <c r="AD777" s="3"/>
+      <c r="AE777" s="3"/>
+      <c r="AF777" s="3"/>
+      <c r="AG777" s="3"/>
+      <c r="AH777" s="3"/>
+      <c r="AI777" s="3"/>
+      <c r="AJ777" s="3"/>
+      <c r="AK777" s="3"/>
+      <c r="AL777" s="3"/>
+      <c r="AM777" s="3"/>
+      <c r="AN777" s="3"/>
+      <c r="AO777" s="3"/>
+      <c r="AP777" s="3"/>
+      <c r="AQ777" s="3"/>
+    </row>
+    <row r="778" ht="25" customHeight="1">
+      <c r="A778" s="3"/>
+      <c r="B778" s="3"/>
+      <c r="C778" s="3"/>
+      <c r="D778" s="3"/>
+      <c r="E778" s="3"/>
+      <c r="F778" s="3"/>
+      <c r="G778" s="3"/>
+      <c r="H778" s="3"/>
+      <c r="I778" s="3"/>
+      <c r="J778" s="3"/>
+      <c r="K778" s="3"/>
+      <c r="L778" s="3"/>
+      <c r="M778" s="3"/>
+      <c r="N778" s="3"/>
+      <c r="O778" s="3"/>
+      <c r="P778" s="3"/>
+      <c r="Q778" s="3"/>
+      <c r="R778" s="3"/>
+      <c r="S778" s="3"/>
+      <c r="T778" s="3"/>
+      <c r="U778" s="3"/>
+      <c r="V778" s="3"/>
+      <c r="W778" s="3"/>
+      <c r="X778" s="3"/>
+      <c r="Y778" s="3"/>
+      <c r="Z778" s="3"/>
+      <c r="AA778" s="3"/>
+      <c r="AB778" s="3"/>
+      <c r="AC778" s="3"/>
+      <c r="AD778" s="3"/>
+      <c r="AE778" s="3"/>
+      <c r="AF778" s="3"/>
+      <c r="AG778" s="3"/>
+      <c r="AH778" s="3"/>
+      <c r="AI778" s="3"/>
+      <c r="AJ778" s="3"/>
+      <c r="AK778" s="3"/>
+      <c r="AL778" s="3"/>
+      <c r="AM778" s="3"/>
+      <c r="AN778" s="3"/>
+      <c r="AO778" s="3"/>
+      <c r="AP778" s="3"/>
+      <c r="AQ778" s="3"/>
+    </row>
+    <row r="779" ht="25" customHeight="1">
+      <c r="A779" s="3"/>
+      <c r="B779" s="3"/>
+      <c r="C779" s="3"/>
+      <c r="D779" s="3"/>
+      <c r="E779" s="3"/>
+      <c r="F779" s="3"/>
+      <c r="G779" s="3"/>
+      <c r="H779" s="3"/>
+      <c r="I779" s="3"/>
+      <c r="J779" s="3"/>
+      <c r="K779" s="3"/>
+      <c r="L779" s="3"/>
+      <c r="M779" s="3"/>
+      <c r="N779" s="3"/>
+      <c r="O779" s="3"/>
+      <c r="P779" s="3"/>
+      <c r="Q779" s="3"/>
+      <c r="R779" s="3"/>
+      <c r="S779" s="3"/>
+      <c r="T779" s="3"/>
+      <c r="U779" s="3"/>
+      <c r="V779" s="3"/>
+      <c r="W779" s="3"/>
+      <c r="X779" s="3"/>
+      <c r="Y779" s="3"/>
+      <c r="Z779" s="3"/>
+      <c r="AA779" s="3"/>
+      <c r="AB779" s="3"/>
+      <c r="AC779" s="3"/>
+      <c r="AD779" s="3"/>
+      <c r="AE779" s="3"/>
+      <c r="AF779" s="3"/>
+      <c r="AG779" s="3"/>
+      <c r="AH779" s="3"/>
+      <c r="AI779" s="3"/>
+      <c r="AJ779" s="3"/>
+      <c r="AK779" s="3"/>
+      <c r="AL779" s="3"/>
+      <c r="AM779" s="3"/>
+      <c r="AN779" s="3"/>
+      <c r="AO779" s="3"/>
+      <c r="AP779" s="3"/>
+      <c r="AQ779" s="3"/>
+    </row>
+    <row r="780" ht="25" customHeight="1">
+      <c r="A780" s="3"/>
+      <c r="B780" s="3"/>
+      <c r="C780" s="3"/>
+      <c r="D780" s="3"/>
+      <c r="E780" s="3"/>
+      <c r="F780" s="3"/>
+      <c r="G780" s="3"/>
+      <c r="H780" s="3"/>
+      <c r="I780" s="3"/>
+      <c r="J780" s="3"/>
+      <c r="K780" s="3"/>
+      <c r="L780" s="3"/>
+      <c r="M780" s="3"/>
+      <c r="N780" s="3"/>
+      <c r="O780" s="3"/>
+      <c r="P780" s="3"/>
+      <c r="Q780" s="3"/>
+      <c r="R780" s="3"/>
+      <c r="S780" s="3"/>
+      <c r="T780" s="3"/>
+      <c r="U780" s="3"/>
+      <c r="V780" s="3"/>
+      <c r="W780" s="3"/>
+      <c r="X780" s="3"/>
+      <c r="Y780" s="3"/>
+      <c r="Z780" s="3"/>
+      <c r="AA780" s="3"/>
+      <c r="AB780" s="3"/>
+      <c r="AC780" s="3"/>
+      <c r="AD780" s="3"/>
+      <c r="AE780" s="3"/>
+      <c r="AF780" s="3"/>
+      <c r="AG780" s="3"/>
+      <c r="AH780" s="3"/>
+      <c r="AI780" s="3"/>
+      <c r="AJ780" s="3"/>
+      <c r="AK780" s="3"/>
+      <c r="AL780" s="3"/>
+      <c r="AM780" s="3"/>
+      <c r="AN780" s="3"/>
+      <c r="AO780" s="3"/>
+      <c r="AP780" s="3"/>
+      <c r="AQ780" s="3"/>
+    </row>
+    <row r="781" ht="25" customHeight="1">
+      <c r="A781" s="3"/>
+      <c r="B781" s="3"/>
+      <c r="C781" s="3"/>
+      <c r="D781" s="3"/>
+      <c r="E781" s="3"/>
+      <c r="F781" s="3"/>
+      <c r="G781" s="3"/>
+      <c r="H781" s="3"/>
+      <c r="I781" s="3"/>
+      <c r="J781" s="3"/>
+      <c r="K781" s="3"/>
+      <c r="L781" s="3"/>
+      <c r="M781" s="3"/>
+      <c r="N781" s="3"/>
+      <c r="O781" s="3"/>
+      <c r="P781" s="3"/>
+      <c r="Q781" s="3"/>
+      <c r="R781" s="3"/>
+      <c r="S781" s="3"/>
+      <c r="T781" s="3"/>
+      <c r="U781" s="3"/>
+      <c r="V781" s="3"/>
+      <c r="W781" s="3"/>
+      <c r="X781" s="3"/>
+      <c r="Y781" s="3"/>
+      <c r="Z781" s="3"/>
+      <c r="AA781" s="3"/>
+      <c r="AB781" s="3"/>
+      <c r="AC781" s="3"/>
+      <c r="AD781" s="3"/>
+      <c r="AE781" s="3"/>
+      <c r="AF781" s="3"/>
+      <c r="AG781" s="3"/>
+      <c r="AH781" s="3"/>
+      <c r="AI781" s="3"/>
+      <c r="AJ781" s="3"/>
+      <c r="AK781" s="3"/>
+      <c r="AL781" s="3"/>
+      <c r="AM781" s="3"/>
+      <c r="AN781" s="3"/>
+      <c r="AO781" s="3"/>
+      <c r="AP781" s="3"/>
+      <c r="AQ781" s="3"/>
+    </row>
+    <row r="782" ht="25" customHeight="1">
+      <c r="A782" s="3"/>
+      <c r="B782" s="3"/>
+      <c r="C782" s="3"/>
+      <c r="D782" s="3"/>
+      <c r="E782" s="3"/>
+      <c r="F782" s="3"/>
+      <c r="G782" s="3"/>
+      <c r="H782" s="3"/>
+      <c r="I782" s="3"/>
+      <c r="J782" s="3"/>
+      <c r="K782" s="3"/>
+      <c r="L782" s="3"/>
+      <c r="M782" s="3"/>
+      <c r="N782" s="3"/>
+      <c r="O782" s="3"/>
+      <c r="P782" s="3"/>
+      <c r="Q782" s="3"/>
+      <c r="R782" s="3"/>
+      <c r="S782" s="3"/>
+      <c r="T782" s="3"/>
+      <c r="U782" s="3"/>
+      <c r="V782" s="3"/>
+      <c r="W782" s="3"/>
+      <c r="X782" s="3"/>
+      <c r="Y782" s="3"/>
+      <c r="Z782" s="3"/>
+      <c r="AA782" s="3"/>
+      <c r="AB782" s="3"/>
+      <c r="AC782" s="3"/>
+      <c r="AD782" s="3"/>
+      <c r="AE782" s="3"/>
+      <c r="AF782" s="3"/>
+      <c r="AG782" s="3"/>
+      <c r="AH782" s="3"/>
+      <c r="AI782" s="3"/>
+      <c r="AJ782" s="3"/>
+      <c r="AK782" s="3"/>
+      <c r="AL782" s="3"/>
+      <c r="AM782" s="3"/>
+      <c r="AN782" s="3"/>
+      <c r="AO782" s="3"/>
+      <c r="AP782" s="3"/>
+      <c r="AQ782" s="3"/>
+    </row>
+    <row r="783" ht="25" customHeight="1">
+      <c r="A783" s="3"/>
+      <c r="B783" s="3"/>
+      <c r="C783" s="3"/>
+      <c r="D783" s="3"/>
+      <c r="E783" s="3"/>
+      <c r="F783" s="3"/>
+      <c r="G783" s="3"/>
+      <c r="H783" s="3"/>
+      <c r="I783" s="3"/>
+      <c r="J783" s="3"/>
+      <c r="K783" s="3"/>
+      <c r="L783" s="3"/>
+      <c r="M783" s="3"/>
+      <c r="N783" s="3"/>
+      <c r="O783" s="3"/>
+      <c r="P783" s="3"/>
+      <c r="Q783" s="3"/>
+      <c r="R783" s="3"/>
+      <c r="S783" s="3"/>
+      <c r="T783" s="3"/>
+      <c r="U783" s="3"/>
+      <c r="V783" s="3"/>
+      <c r="W783" s="3"/>
+      <c r="X783" s="3"/>
+      <c r="Y783" s="3"/>
+      <c r="Z783" s="3"/>
+      <c r="AA783" s="3"/>
+      <c r="AB783" s="3"/>
+      <c r="AC783" s="3"/>
+      <c r="AD783" s="3"/>
+      <c r="AE783" s="3"/>
+      <c r="AF783" s="3"/>
+      <c r="AG783" s="3"/>
+      <c r="AH783" s="3"/>
+      <c r="AI783" s="3"/>
+      <c r="AJ783" s="3"/>
+      <c r="AK783" s="3"/>
+      <c r="AL783" s="3"/>
+      <c r="AM783" s="3"/>
+      <c r="AN783" s="3"/>
+      <c r="AO783" s="3"/>
+      <c r="AP783" s="3"/>
+      <c r="AQ783" s="3"/>
+    </row>
+    <row r="784" ht="25" customHeight="1">
+      <c r="A784" s="3"/>
+      <c r="B784" s="3"/>
+      <c r="C784" s="3"/>
+      <c r="D784" s="3"/>
+      <c r="E784" s="3"/>
+      <c r="F784" s="3"/>
+      <c r="G784" s="3"/>
+      <c r="H784" s="3"/>
+      <c r="I784" s="3"/>
+      <c r="J784" s="3"/>
+      <c r="K784" s="3"/>
+      <c r="L784" s="3"/>
+      <c r="M784" s="3"/>
+      <c r="N784" s="3"/>
+      <c r="O784" s="3"/>
+      <c r="P784" s="3"/>
+      <c r="Q784" s="3"/>
+      <c r="R784" s="3"/>
+      <c r="S784" s="3"/>
+      <c r="T784" s="3"/>
+      <c r="U784" s="3"/>
+      <c r="V784" s="3"/>
+      <c r="W784" s="3"/>
+      <c r="X784" s="3"/>
+      <c r="Y784" s="3"/>
+      <c r="Z784" s="3"/>
+      <c r="AA784" s="3"/>
+      <c r="AB784" s="3"/>
+      <c r="AC784" s="3"/>
+      <c r="AD784" s="3"/>
+      <c r="AE784" s="3"/>
+      <c r="AF784" s="3"/>
+      <c r="AG784" s="3"/>
+      <c r="AH784" s="3"/>
+      <c r="AI784" s="3"/>
+      <c r="AJ784" s="3"/>
+      <c r="AK784" s="3"/>
+      <c r="AL784" s="3"/>
+      <c r="AM784" s="3"/>
+      <c r="AN784" s="3"/>
+      <c r="AO784" s="3"/>
+      <c r="AP784" s="3"/>
+      <c r="AQ784" s="3"/>
+    </row>
+    <row r="785" ht="25" customHeight="1">
+      <c r="A785" s="3"/>
+      <c r="B785" s="3"/>
+      <c r="C785" s="3"/>
+      <c r="D785" s="3"/>
+      <c r="E785" s="3"/>
+      <c r="F785" s="3"/>
+      <c r="G785" s="3"/>
+      <c r="H785" s="3"/>
+      <c r="I785" s="3"/>
+      <c r="J785" s="3"/>
+      <c r="K785" s="3"/>
+      <c r="L785" s="3"/>
+      <c r="M785" s="3"/>
+      <c r="N785" s="3"/>
+      <c r="O785" s="3"/>
+      <c r="P785" s="3"/>
+      <c r="Q785" s="3"/>
+      <c r="R785" s="3"/>
+      <c r="S785" s="3"/>
+      <c r="T785" s="3"/>
+      <c r="U785" s="3"/>
+      <c r="V785" s="3"/>
+      <c r="W785" s="3"/>
+      <c r="X785" s="3"/>
+      <c r="Y785" s="3"/>
+      <c r="Z785" s="3"/>
+      <c r="AA785" s="3"/>
+      <c r="AB785" s="3"/>
+      <c r="AC785" s="3"/>
+      <c r="AD785" s="3"/>
+      <c r="AE785" s="3"/>
+      <c r="AF785" s="3"/>
+      <c r="AG785" s="3"/>
+      <c r="AH785" s="3"/>
+      <c r="AI785" s="3"/>
+      <c r="AJ785" s="3"/>
+      <c r="AK785" s="3"/>
+      <c r="AL785" s="3"/>
+      <c r="AM785" s="3"/>
+      <c r="AN785" s="3"/>
+      <c r="AO785" s="3"/>
+      <c r="AP785" s="3"/>
+      <c r="AQ785" s="3"/>
+    </row>
+    <row r="786" ht="25" customHeight="1">
+      <c r="A786" s="3"/>
+      <c r="B786" s="3"/>
+      <c r="C786" s="3"/>
+      <c r="D786" s="3"/>
+      <c r="E786" s="3"/>
+      <c r="F786" s="3"/>
+      <c r="G786" s="3"/>
+      <c r="H786" s="3"/>
+      <c r="I786" s="3"/>
+      <c r="J786" s="3"/>
+      <c r="K786" s="3"/>
+      <c r="L786" s="3"/>
+      <c r="M786" s="3"/>
+      <c r="N786" s="3"/>
+      <c r="O786" s="3"/>
+      <c r="P786" s="3"/>
+      <c r="Q786" s="3"/>
+      <c r="R786" s="3"/>
+      <c r="S786" s="3"/>
+      <c r="T786" s="3"/>
+      <c r="U786" s="3"/>
+      <c r="V786" s="3"/>
+      <c r="W786" s="3"/>
+      <c r="X786" s="3"/>
+      <c r="Y786" s="3"/>
+      <c r="Z786" s="3"/>
+      <c r="AA786" s="3"/>
+      <c r="AB786" s="3"/>
+      <c r="AC786" s="3"/>
+      <c r="AD786" s="3"/>
+      <c r="AE786" s="3"/>
+      <c r="AF786" s="3"/>
+      <c r="AG786" s="3"/>
+      <c r="AH786" s="3"/>
+      <c r="AI786" s="3"/>
+      <c r="AJ786" s="3"/>
+      <c r="AK786" s="3"/>
+      <c r="AL786" s="3"/>
+      <c r="AM786" s="3"/>
+      <c r="AN786" s="3"/>
+      <c r="AO786" s="3"/>
+      <c r="AP786" s="3"/>
+      <c r="AQ786" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/icmecat/HELCATS_ICMECAT_v20_master.xlsx
+++ b/icmecat/HELCATS_ICMECAT_v20_master.xlsx
@@ -4736,8 +4736,7 @@
     <t>2020-08-04T10:43Z</t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20200805_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20200805_01</t>
   </si>
   <si>
     <t>2020-08-05T14:01Z</t>
@@ -4746,8 +4745,7 @@
     <t>2020-08-06T17:57Z</t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20200819_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20200819_01</t>
   </si>
   <si>
     <t>2020-08-19T21:11Z</t>
@@ -4759,8 +4757,7 @@
     <t>2020-08-21T03:12Z</t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20200901_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20200901_01</t>
   </si>
   <si>
     <t>2020-09-01T10:41Z</t>
@@ -4769,8 +4766,7 @@
     <t xml:space="preserve">2020-09-02T22:30Z </t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20200908_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20200908_01</t>
   </si>
   <si>
     <t>2020-09-08T14:47Z</t>
@@ -4779,8 +4775,7 @@
     <t>2020-09-09T01:18Z</t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20200910_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20200910_01</t>
   </si>
   <si>
     <t>2020-09-10T04:11Z</t>
@@ -4789,8 +4784,7 @@
     <t xml:space="preserve">2020-09-10T10:54Z </t>
   </si>
   <si>
-    <t xml:space="preserve">ICME_STEREO_A_MOESTL_20201027_01
-</t>
+    <t>ICME_STEREO_A_MOESTL_20201027_01</t>
   </si>
   <si>
     <t>2020-10-27T12:27Z</t>
@@ -17032,7 +17026,7 @@
       </c>
     </row>
     <row r="419" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A419" t="s" s="8">
+      <c r="A419" t="s" s="4">
         <v>1574</v>
       </c>
       <c r="B419" t="s" s="4">
@@ -17049,7 +17043,7 @@
       </c>
     </row>
     <row r="420" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A420" t="s" s="8">
+      <c r="A420" t="s" s="4">
         <v>1577</v>
       </c>
       <c r="B420" t="s" s="4">
@@ -17066,7 +17060,7 @@
       </c>
     </row>
     <row r="421" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A421" t="s" s="8">
+      <c r="A421" t="s" s="4">
         <v>1581</v>
       </c>
       <c r="B421" t="s" s="4">
@@ -17083,7 +17077,7 @@
       </c>
     </row>
     <row r="422" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A422" t="s" s="8">
+      <c r="A422" t="s" s="4">
         <v>1584</v>
       </c>
       <c r="B422" t="s" s="4">
@@ -17100,7 +17094,7 @@
       </c>
     </row>
     <row r="423" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A423" t="s" s="8">
+      <c r="A423" t="s" s="4">
         <v>1587</v>
       </c>
       <c r="B423" t="s" s="4">
@@ -17117,7 +17111,7 @@
       </c>
     </row>
     <row r="424" s="3" customFormat="1" ht="23" customHeight="1">
-      <c r="A424" t="s" s="8">
+      <c r="A424" t="s" s="4">
         <v>1590</v>
       </c>
       <c r="B424" t="s" s="4">
